--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_card_for_accounting.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_card_for_accounting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Budget Summary Report" sheetId="1" r:id="rId1"/>
@@ -131,23 +131,16 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -215,7 +208,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -223,6 +215,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +498,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A11" sqref="A11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -518,7 +513,7 @@
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -602,54 +597,54 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_card_for_accounting.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_card_for_accounting.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siraph/Documents/pabi/pb2_addons/pabi_procurement_report/xlsx_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,9 +50,6 @@
     <t>Balance</t>
   </si>
   <si>
-    <t xml:space="preserve">Price / Unut </t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -99,13 +96,16 @@
   </si>
   <si>
     <t>Tax ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price / Unit </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -113,26 +113,21 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,25 +193,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -227,6 +249,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -498,116 +523,119 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:K11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="1" max="1" width="25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20" style="2" customWidth="1"/>
+    <col min="3" max="6" width="20" style="5" customWidth="1"/>
+    <col min="7" max="8" width="20" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>1</v>
@@ -625,55 +653,55 @@
         <v>5</v>
       </c>
       <c r="I11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.60972222222222205" bottom="0.37013888888888902" header="0.51180555555555496" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;8 2018-02-20 09:37:39&amp;R&amp;8&amp;P / &amp;N</oddFooter>
   </headerFooter>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_card_for_accounting.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_card_for_accounting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Sloc</t>
   </si>
@@ -56,49 +56,34 @@
     <t>Date</t>
   </si>
   <si>
-    <t>NSTDA</t>
-  </si>
-  <si>
-    <t>Stock Card for Accounting</t>
-  </si>
-  <si>
-    <t>Bangkok</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Business Place</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
-    <t>Material No.</t>
-  </si>
-  <si>
-    <t>Material UoM.</t>
-  </si>
-  <si>
     <t>Reference Doc.</t>
   </si>
   <si>
     <t>Balance Amount</t>
   </si>
   <si>
-    <t>Tax ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Price / Unit </t>
+  </si>
+  <si>
+    <t>รายงานเพื่อตรวจสอบยอดการขอเบิกใช้กับ Stock คงเหลือ</t>
+  </si>
+  <si>
+    <t>ศูนย์</t>
+  </si>
+  <si>
+    <t>สินค้า</t>
+  </si>
+  <si>
+    <t>ประเภทสินค้า</t>
+  </si>
+  <si>
+    <t>คลังสินค้า</t>
+  </si>
+  <si>
+    <t>จากวันที่</t>
+  </si>
+  <si>
+    <t>ถึงวันที่</t>
   </si>
 </sst>
 </file>
@@ -138,27 +123,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -176,24 +146,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -204,9 +161,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -216,29 +170,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,185 +468,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20" style="2" customWidth="1"/>
-    <col min="3" max="6" width="20" style="5" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="20" style="1" customWidth="1"/>
     <col min="7" max="8" width="20" style="2" customWidth="1"/>
     <col min="9" max="9" width="25" style="2" customWidth="1"/>
     <col min="10" max="10" width="20" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" style="4" customWidth="1"/>
     <col min="12" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
+    <row r="1" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="10" t="s">
+      <c r="J9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.60972222222222205" bottom="0.37013888888888902" header="0.51180555555555496" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_card_for_accounting.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_card_for_accounting.xlsx
@@ -5,20 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\801645\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16335" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Budget Summary Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,28 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Sloc</t>
-  </si>
-  <si>
-    <t>GR/GI Slip</t>
-  </si>
-  <si>
-    <t>Receipt</t>
-  </si>
-  <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -59,12 +35,6 @@
     <t>Reference Doc.</t>
   </si>
   <si>
-    <t>Balance Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price / Unit </t>
-  </si>
-  <si>
     <t>รายงานเพื่อตรวจสอบยอดการขอเบิกใช้กับ Stock คงเหลือ</t>
   </si>
   <si>
@@ -84,12 +54,63 @@
   </si>
   <si>
     <t>ถึงวันที่</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Scheduled Date</t>
+  </si>
+  <si>
+    <t>Source Doc</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Inventory Value</t>
+  </si>
+  <si>
+    <t>Journal Doc</t>
+  </si>
+  <si>
+    <t>Posting Date</t>
+  </si>
+  <si>
+    <t>Partner code</t>
+  </si>
+  <si>
+    <t>Partner Name</t>
+  </si>
+  <si>
+    <t>Picking Type</t>
+  </si>
+  <si>
+    <t>Source Location</t>
+  </si>
+  <si>
+    <t>Destination Location</t>
+  </si>
+  <si>
+    <t>Account code</t>
+  </si>
+  <si>
+    <t>Account name</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Debit Amount</t>
+  </si>
+  <si>
+    <t>Credit Amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -150,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -179,14 +200,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,103 +492,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="20" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="21.7109375" style="2" customWidth="1"/>
+    <col min="4" max="6" width="20" style="1" customWidth="1"/>
     <col min="7" max="8" width="20" style="2" customWidth="1"/>
     <col min="9" max="9" width="25" style="2" customWidth="1"/>
     <col min="10" max="10" width="20" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="1"/>
+    <col min="11" max="11" width="17.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" customWidth="1"/>
+    <col min="13" max="16" width="19.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="19.85546875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="H9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="K9" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="L9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="M9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="N9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="S9" s="8" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_card_for_accounting.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_card_for_accounting.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Credit Amount</t>
+  </si>
+  <si>
+    <t>Internal move +</t>
+  </si>
+  <si>
+    <t>Internal move -</t>
   </si>
 </sst>
 </file>
@@ -492,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -503,35 +509,35 @@
     <col min="1" max="1" width="20.28515625" style="4" customWidth="1"/>
     <col min="2" max="3" width="21.7109375" style="2" customWidth="1"/>
     <col min="4" max="6" width="20" style="1" customWidth="1"/>
-    <col min="7" max="8" width="20" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16" width="19.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="19.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="10" width="20" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" customWidth="1"/>
+    <col min="15" max="18" width="19.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="19.85546875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -540,7 +546,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -548,7 +554,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -556,15 +562,15 @@
       <c r="C6" s="6"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:19" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -590,36 +596,42 @@
         <v>18</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="N9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="O9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="P9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="Q9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="R9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="S9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="T9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="U9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
